--- a/TestData/Logindata.xlsx
+++ b/TestData/Logindata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="AddLineItem" sheetId="6" r:id="rId6"/>
     <sheet name="AddDeliverable" sheetId="7" r:id="rId7"/>
     <sheet name="AddOrder" sheetId="8" r:id="rId8"/>
+    <sheet name="AddCompanyRole" sheetId="10" r:id="rId9"/>
+    <sheet name="AddProjectSource" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>username</t>
   </si>
@@ -218,6 +220,36 @@
   </si>
   <si>
     <t>Richardsons Office</t>
+  </si>
+  <si>
+    <t>Company Role</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Richmond International</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Richard L</t>
+  </si>
+  <si>
+    <t>SourceType</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Source Notes</t>
   </si>
 </sst>
 </file>
@@ -674,6 +706,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
@@ -704,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,4 +1139,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/Logindata.xlsx
+++ b/TestData/Logindata.xlsx
@@ -9,26 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Contact" sheetId="2" r:id="rId2"/>
-    <sheet name="AddCompany" sheetId="3" r:id="rId3"/>
-    <sheet name="AddContact" sheetId="4" r:id="rId4"/>
-    <sheet name="AddProject" sheetId="5" r:id="rId5"/>
-    <sheet name="AddLineItem" sheetId="6" r:id="rId6"/>
-    <sheet name="AddDeliverable" sheetId="7" r:id="rId7"/>
-    <sheet name="AddOrder" sheetId="8" r:id="rId8"/>
-    <sheet name="AddCompanyRole" sheetId="10" r:id="rId9"/>
-    <sheet name="AddProjectSource" sheetId="11" r:id="rId10"/>
+    <sheet name="SearchContact" sheetId="2" r:id="rId2"/>
+    <sheet name="SearchCompany" sheetId="12" r:id="rId3"/>
+    <sheet name="SearchProject" sheetId="13" r:id="rId4"/>
+    <sheet name="AddCompany" sheetId="3" r:id="rId5"/>
+    <sheet name="AddContact" sheetId="4" r:id="rId6"/>
+    <sheet name="AddProject" sheetId="5" r:id="rId7"/>
+    <sheet name="AddLineItem" sheetId="6" r:id="rId8"/>
+    <sheet name="AddDeliverable" sheetId="7" r:id="rId9"/>
+    <sheet name="AddOrder" sheetId="8" r:id="rId10"/>
+    <sheet name="AddCompanyRole" sheetId="10" r:id="rId11"/>
+    <sheet name="AddProjectSource" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>username</t>
   </si>
@@ -138,9 +140,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>11 Investigation</t>
   </si>
   <si>
@@ -237,19 +236,43 @@
     <t>Richard</t>
   </si>
   <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
     <t>Richard L</t>
   </si>
   <si>
     <t>SourceType</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Source Notes</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Client meeting</t>
+  </si>
+  <si>
+    <t>Customer-Network</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Photographer</t>
   </si>
 </sst>
 </file>
@@ -708,10 +731,107 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>345</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,13 +844,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>35</v>
@@ -738,16 +858,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +879,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,16 +916,40 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -816,7 +984,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -834,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -884,12 +1052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,34 +1108,92 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
-        <v>45</v>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -994,26 +1220,26 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="3">
         <v>1000</v>
@@ -1028,7 +1254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1051,136 +1277,39 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>345</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TestData/Logindata.xlsx
+++ b/TestData/Logindata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>username</t>
   </si>
@@ -143,21 +143,6 @@
     <t>11 Investigation</t>
   </si>
   <si>
-    <t>Bangalore M.G.Road</t>
-  </si>
-  <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Payal Mishra</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -245,18 +230,9 @@
     <t>Source Notes</t>
   </si>
   <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>Arya</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
-    <t>Clinic</t>
-  </si>
-  <si>
     <t>Client meeting</t>
   </si>
   <si>
@@ -273,13 +249,79 @@
   </si>
   <si>
     <t>Photographer</t>
+  </si>
+  <si>
+    <t>JBL road, Riyadh</t>
+  </si>
+  <si>
+    <t>Dolphis paradise, al sharta street, dubai</t>
+  </si>
+  <si>
+    <t>Penthouse, JLT</t>
+  </si>
+  <si>
+    <t>Sharjah</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>14 Processing</t>
+  </si>
+  <si>
+    <t>15 Ready</t>
+  </si>
+  <si>
+    <t>Nightclub</t>
+  </si>
+  <si>
+    <t>12 Photos Received</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abu Dhabi</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Whether you are in for a sweet treat or to pick up a gorgeous bouquet from the gift shop, iTCH is carefully studied to create a balance between 2 concepts, flowers and bakery while still allowing for a playful approach for in-store customers and shoppers journey.</t>
+  </si>
+  <si>
+    <t>Drishti Deshmukh</t>
+  </si>
+  <si>
+    <t>Kajal Bhasin</t>
+  </si>
+  <si>
+    <t>Arya P</t>
+  </si>
+  <si>
+    <t>Kushi K</t>
+  </si>
+  <si>
+    <t>Twofour 54 Khalifa Park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +345,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,6 +384,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -747,19 +796,19 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,7 +819,7 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -786,7 +835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -800,24 +849,24 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -844,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>35</v>
@@ -858,16 +907,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +965,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -941,7 +990,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1033,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1054,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,97 +1157,126 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1220,26 +1298,26 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3">
         <v>1000</v>
@@ -1277,36 +1355,36 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Logindata.xlsx
+++ b/TestData/Logindata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5955" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="AddProject" sheetId="5" r:id="rId7"/>
     <sheet name="AddLineItem" sheetId="6" r:id="rId8"/>
     <sheet name="AddDeliverable" sheetId="7" r:id="rId9"/>
-    <sheet name="AddOrder" sheetId="8" r:id="rId10"/>
-    <sheet name="AddCompanyRole" sheetId="10" r:id="rId11"/>
-    <sheet name="AddProjectSource" sheetId="11" r:id="rId12"/>
+    <sheet name="ChangeProjectStatus" sheetId="14" r:id="rId10"/>
+    <sheet name="AddOrder" sheetId="8" r:id="rId11"/>
+    <sheet name="AddCompanyRole" sheetId="10" r:id="rId12"/>
+    <sheet name="AddProjectSource" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>username</t>
   </si>
@@ -167,9 +168,6 @@
     <t>Activation</t>
   </si>
   <si>
-    <t>Line item is added</t>
-  </si>
-  <si>
     <t>Deliverable Item</t>
   </si>
   <si>
@@ -185,9 +183,6 @@
     <t>Webinar</t>
   </si>
   <si>
-    <t>Deliverable item is being added</t>
-  </si>
-  <si>
     <t>LTD</t>
   </si>
   <si>
@@ -315,6 +310,24 @@
   </si>
   <si>
     <t>Twofour 54 Khalifa Park</t>
+  </si>
+  <si>
+    <t>Line Item data</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>13 Reviewed</t>
+  </si>
+  <si>
+    <t>Status is changed to 13 Reviewed</t>
+  </si>
+  <si>
+    <t>Status is changed to Planning</t>
+  </si>
+  <si>
+    <t>Planning</t>
   </si>
 </sst>
 </file>
@@ -780,6 +793,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -796,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>35</v>
@@ -805,10 +868,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,7 +882,7 @@
         <v>345</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -831,7 +894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -849,24 +912,24 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -875,7 +938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -893,13 +956,13 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>35</v>
@@ -907,16 +970,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1028,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1053,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1096,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1105,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1157,25 +1220,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
@@ -1189,25 +1252,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>37</v>
@@ -1218,25 +1281,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>37</v>
@@ -1247,31 +1310,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1348,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1380,7 @@
         <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3">
         <v>1000</v>
@@ -1355,27 +1418,27 @@
         <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1384,7 +1447,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
